--- a/data/Subset2_WithDialogActs/TalkBack.Year1.Keene.Fall.120619-2.xlsx_with_dialog_acts.xlsx
+++ b/data/Subset2_WithDialogActs/TalkBack.Year1.Keene.Fall.120619-2.xlsx_with_dialog_acts.xlsx
@@ -513,12 +513,12 @@
       <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -639,12 +639,12 @@
       <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -1017,12 +1017,12 @@
       <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -1059,12 +1059,12 @@
       <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -1945,12 +1945,12 @@
       <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -2197,12 +2197,12 @@
       <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -2453,12 +2453,12 @@
       <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -2579,12 +2579,12 @@
       <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -2663,12 +2663,12 @@
       <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -2873,12 +2873,12 @@
       <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -3125,12 +3125,12 @@
       <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -3461,12 +3461,12 @@
       <c r="H72" t="inlineStr"/>
       <c r="I72" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -3713,12 +3713,12 @@
       <c r="H78" t="inlineStr"/>
       <c r="I78" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -4259,12 +4259,12 @@
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -4301,12 +4301,12 @@
       <c r="H92" t="inlineStr"/>
       <c r="I92" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -4553,12 +4553,12 @@
       <c r="H98" t="inlineStr"/>
       <c r="I98" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -4763,12 +4763,12 @@
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -4847,12 +4847,12 @@
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J105" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
